--- a/contentAndGraphics/categoriesAndProducts.xlsx
+++ b/contentAndGraphics/categoriesAndProducts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Accessories</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,6 +475,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/contentAndGraphics/categoriesAndProducts.xlsx
+++ b/contentAndGraphics/categoriesAndProducts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -60,7 +60,36 @@
     <t>Accessories</t>
   </si>
   <si>
-    <t>TEST</t>
+    <t>חצאית מסתובבת באורך ברך, בדיוק כמו שילדות אוהבות.
+עשויה 100% בד כותנה רך ונעים. 
+בראש החצאית חגורה מגומי אלסטי.</t>
+  </si>
+  <si>
+    <t>הוראות כביסה / טיפול : להפוך ולכבס במכונה ללא מלבין ובנפרד. ללא השריה, סחיטה מוגבלת, ייבוש בצל. גיהוץ הפוך בחום נמוך.</t>
+  </si>
+  <si>
+    <t>ורוד בהיר
+מידות 4-12</t>
+  </si>
+  <si>
+    <t>מסתובבת אדומה עם נקודות</t>
+  </si>
+  <si>
+    <t>מסתובבת נקודות ורודות</t>
+  </si>
+  <si>
+    <t>כמו מסתובבת נקודות ורודות</t>
+  </si>
+  <si>
+    <t>אדום
+מידות 4-12</t>
+  </si>
+  <si>
+    <t>מסתובבת כחולה עם נקודות</t>
+  </si>
+  <si>
+    <t>כחול
+מידות 4-12</t>
   </si>
 </sst>
 </file>
@@ -112,11 +141,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,65 +453,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="40" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>59</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/contentAndGraphics/categoriesAndProducts.xlsx
+++ b/contentAndGraphics/categoriesAndProducts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="מוצרים" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -90,6 +90,114 @@
   <si>
     <t>כחול
 מידות 4-12</t>
+  </si>
+  <si>
+    <t>מסתובבת עם הדפס כוכבים</t>
+  </si>
+  <si>
+    <t>צבע דגום
+מידות 4-12</t>
+  </si>
+  <si>
+    <t>ורוד בהיר מידות 4-12</t>
+  </si>
+  <si>
+    <t>כמו ארוכה נקודות ורודות</t>
+  </si>
+  <si>
+    <t>קומות ארוכה אדומה עם נקודות</t>
+  </si>
+  <si>
+    <t>חצאית מסתובבת ארוכה, בסגנון כפרי שאמהות וילדות אוהבות.
+עשויה 100% בד כותנה קיצי רך ונעים. 
+גומי רק ונעים בצדה האחורי של החגורה, ללא רוכסן</t>
+  </si>
+  <si>
+    <t>מחיר הנחה</t>
+  </si>
+  <si>
+    <t>כמו קומות ורודה בהירה</t>
+  </si>
+  <si>
+    <t>ורוד כהה
+מידות 4-12</t>
+  </si>
+  <si>
+    <t>קומות ארוכה ורודה בהירה</t>
+  </si>
+  <si>
+    <t>קומות ארוכה ורודה</t>
+  </si>
+  <si>
+    <t>קומות ארוכה לבנה</t>
+  </si>
+  <si>
+    <t>קומות ארוכה אפורה</t>
+  </si>
+  <si>
+    <t>אפור
+מידות 4-12</t>
+  </si>
+  <si>
+    <t>לבן
+מידות 4-12</t>
+  </si>
+  <si>
+    <t>צווארון סיני לבנה</t>
+  </si>
+  <si>
+    <t>חולצת צווארון סיני עם שרוול ארוך, גם ילדותית וגם גברית. מתאימה ליום הולדת, בית כנסת או ארוחה חגיגית.
+שימו לב! המידות גדולות, מומלץ לקחת מידה מדוייקת.
+עיצוב נקי ומינימליסטי.
+כיס מקדימה, בחלק התחתון הצד האחורי ארוך יותר
+עשויה 100% בד כותנה רך ונעים.</t>
+  </si>
+  <si>
+    <t>צווארון סיני כחולה</t>
+  </si>
+  <si>
+    <t>כמו צווארון סיני לבנה</t>
+  </si>
+  <si>
+    <t>צווארון סיני כחולה בהירה</t>
+  </si>
+  <si>
+    <t>כחול בהיר מידות 4-12</t>
+  </si>
+  <si>
+    <t>חצאית מסתובבת ארוכה, בסגנון כפרי שאמהות וילדות אוהבות.
+עשויה 100% בד כותנה רך ונעים. 
+גומי רק ונעים בצדה האחורי של החגורה, ללא רוכסן.</t>
+  </si>
+  <si>
+    <t>קומות ארוכה עם הדפס כוכבים</t>
+  </si>
+  <si>
+    <t>מסתובבת פרחונית</t>
+  </si>
+  <si>
+    <t>קומות ארוכה ורודה עם נקודות</t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>אין תמונות</t>
+  </si>
+  <si>
+    <t>בנות, חצאיות</t>
+  </si>
+  <si>
+    <t>בנים, חולצות</t>
+  </si>
+  <si>
+    <t>בנות, 
+חצאיות
+SALE,
+SALE-בנות</t>
+  </si>
+  <si>
+    <t>קומות ארוכה פרחונית</t>
   </si>
 </sst>
 </file>
@@ -121,15 +229,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,19 +263,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -453,23 +606,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="40" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="40" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,35 +645,41 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3">
@@ -527,49 +692,517 @@
         <v>15</v>
       </c>
       <c r="E2" s="3">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>852369</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>896475</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>248697</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3">
+        <v>974264</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3">
+        <v>416985</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>69</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3">
+        <v>474123</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3">
+        <v>563197</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3">
+        <v>265719</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>841671</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3">
         <v>59</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="F11" s="3">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3">
+        <v>574391</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>274962</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3">
+        <v>314852</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3">
+        <v>961247</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3">
+        <v>69</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3">
+        <v>198347</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3">
+        <v>197548</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/contentAndGraphics/categoriesAndProducts.xlsx
+++ b/contentAndGraphics/categoriesAndProducts.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="מוצרים" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="קטגוריות" sheetId="2" r:id="rId2"/>
+    <sheet name="באנרים" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">קטגוריות!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -199,12 +202,100 @@
   <si>
     <t>קומות ארוכה פרחונית</t>
   </si>
+  <si>
+    <t>מלל</t>
+  </si>
+  <si>
+    <t>חולצות בנים</t>
+  </si>
+  <si>
+    <t>חצאיות</t>
+  </si>
+  <si>
+    <t>שמלות</t>
+  </si>
+  <si>
+    <t>SALE</t>
+  </si>
+  <si>
+    <t>קטן/גדול</t>
+  </si>
+  <si>
+    <t>נושא</t>
+  </si>
+  <si>
+    <t>גדול</t>
+  </si>
+  <si>
+    <t>שני פריטים ב99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">באנר גדול עם פירסום של כל מה שיש 2 בX. </t>
+  </si>
+  <si>
+    <t>קטן</t>
+  </si>
+  <si>
+    <t>שתי שמלו ב99</t>
+  </si>
+  <si>
+    <t>מועדון לקוחות</t>
+  </si>
+  <si>
+    <t>בנות</t>
+  </si>
+  <si>
+    <t>קטגוריה</t>
+  </si>
+  <si>
+    <t>בנים</t>
+  </si>
+  <si>
+    <t>יחד עם חולצה חלקה או מקושקשת, חצאית היא הפריט האולטימטיבי.
+לבית הספר או לחגיגת יום הולדת, לארוחה אצל הסבתא או סתם אחרי צהריים בגינה - 
+החצאיות שלנו יפות ואיכותיות, עשויות בד אריג או סריג, מודפסות או חלקות.
+והעיקר - החצאיות שלנו מסתובבות !!</t>
+  </si>
+  <si>
+    <t>רמה</t>
+  </si>
+  <si>
+    <t>קטגורית אב</t>
+  </si>
+  <si>
+    <t>בית</t>
+  </si>
+  <si>
+    <t>אז מה בנים אוהבים ללבוש ? את הבגד הפשוט והנוח ביותר...
+בגדי הבנים שלנו מעוצבים ואיכותיים, הבנים יראו חגיגיים וגם יוכלו להמשיך להשתולל 
+והמחיר ? כמו תמיד אצלנו - הוגן.
+קניה מהנה !</t>
+  </si>
+  <si>
+    <t>הפכנו את כל העולם כדי להביא לכן 
+את הבגדים השמחים ביותר שמצאנו
+השתדלנו והצלחנו לשמור בשבילכן על העקרונות שלנו: איכות מצויינת, עיצוב מעודכן ומחיר הוגן
+קנייה מהנה !</t>
+  </si>
+  <si>
+    <t>פינת המציאות של שוקולדה, 
+פריטים מעונות קודמות או פריטים אחרונים מדגם.</t>
+  </si>
+  <si>
+    <t>גם גבריות וגם ילדותיות. 
+חולצות הבנים של שוקולדה מתאימות לאירועים חשובים ומשמחים - יום הולדת בגן, חתונה או ארוחה אצל סבתא</t>
+  </si>
+  <si>
+    <t>ילדות אוהבות שמלות - צבעוניות או חלקות, מבד סריג או ג'ינס
+השתדלנו שהשמלות שלנו יהיו מסתובבות, ואיפה שלא - הן "סתם" שמלות מקסימות.
+והאמת היא - גם השמלות אוהבות ילדות ...</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +315,14 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -304,6 +403,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1208,24 +1312,218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:C7">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:D7">
+    <sortCondition ref="A2:A7"/>
+    <sortCondition ref="B2:B7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/contentAndGraphics/categoriesAndProducts.xlsx
+++ b/contentAndGraphics/categoriesAndProducts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="מוצרים" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -289,6 +289,27 @@
     <t>ילדות אוהבות שמלות - צבעוניות או חלקות, מבד סריג או ג'ינס
 השתדלנו שהשמלות שלנו יהיו מסתובבות, ואיפה שלא - הן "סתם" שמלות מקסימות.
 והאמת היא - גם השמלות אוהבות ילדות ...</t>
+  </si>
+  <si>
+    <t>מסתובבת ג'רזי פסים כחולים</t>
+  </si>
+  <si>
+    <t>מסתובבת ג'רזי פסים טורקיז אפור</t>
+  </si>
+  <si>
+    <t>שמלה מסתובבת עשוייה בד ג'רזי מכותנה בשילוב לייקרה.</t>
+  </si>
+  <si>
+    <t>כמו מסתובבת ג'רזי פסים כחולים</t>
+  </si>
+  <si>
+    <t>כמו מסתובבת ג'רזי</t>
+  </si>
+  <si>
+    <t>שמלת כתפיות אפרסק עם פס כסף</t>
+  </si>
+  <si>
+    <t>שמלת כתפיות לבנה עם פס כסף</t>
   </si>
 </sst>
 </file>
@@ -710,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:A17"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1304,6 +1325,56 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
+    <row r="18" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1">
+        <v>652142</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1">
+        <v>698147</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1">
+        <v>514741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1">
+        <v>514742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1314,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
